--- a/20002.xlsx
+++ b/20002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/ln/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C061E85-90EC-CB4A-BE86-2BBB1D36F258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45848AF4-633B-7C46-B5E3-76D1D07A14C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P103" sqref="P103"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,8 +616,8 @@
         <v>481421.27451947401</v>
       </c>
       <c r="P2">
-        <f>0.3016*N2</f>
-        <v>191248477.65733892</v>
+        <f>0.0413*N2</f>
+        <v>26188866.469655499</v>
       </c>
       <c r="Q2">
         <f>0.025*N2</f>
@@ -688,8 +688,8 @@
         <v>1023907.337138511</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">0.3016*N3</f>
-        <v>865104837.30835712</v>
+        <f t="shared" ref="P3:P66" si="1">0.0413*N3</f>
+        <v>118464289.72425449</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="2">0.025*N3</f>
@@ -761,7 +761,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>154584080.09400392</v>
+        <v>21168178.076533034</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>701912447.51263165</v>
+        <v>96117321.227691293</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>69272825.535506546</v>
+        <v>9485967.157216249</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>399242190.13217306</v>
+        <v>54670764.099664286</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>120886979.85976745</v>
+        <v>16553820.517932348</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>541063657.77021265</v>
+        <v>74091276.743732706</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>51569656.370303251</v>
+        <v>7061759.9737848956</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>291054076.27809268</v>
+        <v>39855879.808638029</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>20589185.592602711</v>
+        <v>2819407.7088013664</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>125280422.10345748</v>
+        <v>17155442.416686986</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>92576509.325839594</v>
+        <v>12677088.312855357</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>397909759.74678618</v>
+        <v>54488305.960020795</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>38040928.766238958</v>
+        <v>5209185.5372867016</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>202639908.63663721</v>
+        <v>27748767.329884343</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>15268531.435454121</v>
+        <v>2090816.804656019</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>88549924.62649031</v>
+        <v>12125702.543348974</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>5661398.8518236345</v>
+        <v>775251.23534587584</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>35069450.042131133</v>
+        <v>4802282.1178382495</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>70141666.003865555</v>
+        <v>9604942.990582386</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>286147896.38116068</v>
+        <v>39184045.492513053</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>27956591.68675736</v>
+        <v>3828273.331111005</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>136520158.20440346</v>
+        <v>18694570.735549945</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>11196656.13893472</v>
+        <v>1533229.1065583688</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>60505804.984997198</v>
+        <v>8285443.4545105593</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>4190960.9133643596</v>
+        <v>573894.84655818332</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>24478051.259975612</v>
+        <v>3351934.7381863161</v>
       </c>
       <c r="Q29">
         <f t="shared" si="2"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>1477337.1084308578</v>
+        <v>202301.13586934496</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>9184261.5792597309</v>
+        <v>1257659.1618813889</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>51446571.779499508</v>
+        <v>7044905.2204686012</v>
       </c>
       <c r="Q32">
         <f t="shared" si="2"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>206092610.10786054</v>
+        <v>28221567.630817775</v>
       </c>
       <c r="Q33">
         <f t="shared" si="2"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>20098784.397598907</v>
+        <v>2752253.9642600631</v>
       </c>
       <c r="Q34">
         <f t="shared" si="2"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>91903807.358788669</v>
+        <v>12584970.967897786</v>
       </c>
       <c r="Q35">
         <f t="shared" si="2"/>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>7933653.5381468097</v>
+        <v>1086405.4745539234</v>
       </c>
       <c r="Q36">
         <f t="shared" si="2"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>40522743.862910502</v>
+        <v>5549036.2119966969</v>
       </c>
       <c r="Q37">
         <f t="shared" si="2"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>2999624.5681355973</v>
+        <v>410757.60830238793</v>
       </c>
       <c r="Q38">
         <f t="shared" si="2"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>16664107.108179161</v>
+        <v>2281921.8288057013</v>
       </c>
       <c r="Q39">
         <f t="shared" si="2"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>1076120.6617693468</v>
+        <v>147360.02430727464</v>
       </c>
       <c r="Q40">
         <f t="shared" si="2"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>6390919.4572074069</v>
+        <v>875149.11665340164</v>
       </c>
       <c r="Q41">
         <f t="shared" si="2"/>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>364946.78647213656</v>
+        <v>49974.477060010744</v>
       </c>
       <c r="Q42">
         <f t="shared" si="2"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>2289959.7532283412</v>
+        <v>313578.70626104274</v>
       </c>
       <c r="Q43">
         <f t="shared" si="2"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>35105029.930820778</v>
+        <v>4807154.2975560287</v>
       </c>
       <c r="Q44">
         <f t="shared" si="2"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
-        <v>150291809.60217708</v>
+        <v>20580410.267141625</v>
       </c>
       <c r="Q45">
         <f t="shared" si="2"/>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
-        <v>13558897.62158055</v>
+        <v>1856705.8082602015</v>
       </c>
       <c r="Q46">
         <f t="shared" si="2"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
-        <v>63284431.096670665</v>
+        <v>8665938.3431448899</v>
       </c>
       <c r="Q47">
         <f t="shared" si="2"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
-        <v>5272640.6684320876</v>
+        <v>722016.11275280255</v>
       </c>
       <c r="Q48">
         <f t="shared" si="2"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="1"/>
-        <v>27222995.893632013</v>
+        <v>3727817.408511281</v>
       </c>
       <c r="Q49">
         <f t="shared" si="2"/>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
-        <v>2001990.9177108088</v>
+        <v>274145.30802870163</v>
       </c>
       <c r="Q50">
         <f t="shared" si="2"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="1"/>
-        <v>11163736.968193464</v>
+        <v>1528721.2758169433</v>
       </c>
       <c r="Q51">
         <f t="shared" si="2"/>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="1"/>
-        <v>734857.81851445779</v>
+        <v>100628.73973689361</v>
       </c>
       <c r="Q52">
         <f t="shared" si="2"/>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="1"/>
-        <v>4357078.6278408235</v>
+        <v>596642.39830844174</v>
       </c>
       <c r="Q53">
         <f t="shared" si="2"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="1"/>
-        <v>256027.08802759316</v>
+        <v>35059.412253115384</v>
       </c>
       <c r="Q54">
         <f t="shared" si="2"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
-        <v>1596985.2958747528</v>
+        <v>218685.32068841942</v>
       </c>
       <c r="Q55">
         <f t="shared" si="2"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>84753.964023271299</v>
+        <v>11605.897593372365</v>
       </c>
       <c r="Q56">
         <f t="shared" si="2"/>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="1"/>
-        <v>550767.61468649365</v>
+        <v>75420.101082732726</v>
       </c>
       <c r="Q57">
         <f t="shared" si="2"/>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="1"/>
-        <v>21787547.435497511</v>
+        <v>2983506.9929908728</v>
       </c>
       <c r="Q58">
         <f t="shared" si="2"/>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="1"/>
-        <v>108845599.80553067</v>
+        <v>14904918.010505361</v>
       </c>
       <c r="Q59">
         <f t="shared" si="2"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="1"/>
-        <v>8371750.4952708054</v>
+        <v>1146396.8682184492</v>
       </c>
       <c r="Q60">
         <f t="shared" si="2"/>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="1"/>
-        <v>44027002.931479387</v>
+        <v>6028896.6215852089</v>
       </c>
       <c r="Q61">
         <f t="shared" si="2"/>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="1"/>
-        <v>3225964.2912108884</v>
+        <v>441751.74146886508</v>
       </c>
       <c r="Q62">
         <f t="shared" si="2"/>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="1"/>
-        <v>18283895.062163319</v>
+        <v>2503729.6620270065</v>
       </c>
       <c r="Q63">
         <f t="shared" si="2"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="1"/>
-        <v>1227948.1507589798</v>
+        <v>168150.7248884147</v>
       </c>
       <c r="Q64">
         <f t="shared" si="2"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="1"/>
-        <v>7380949.8847604021</v>
+        <v>1010720.2594184505</v>
       </c>
       <c r="Q65">
         <f t="shared" si="2"/>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="1"/>
-        <v>458161.55491687445</v>
+        <v>62738.966240274931</v>
       </c>
       <c r="Q66">
         <f t="shared" si="2"/>
@@ -5296,8 +5296,8 @@
         <v>4702.7591030599706</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P111" si="5">0.3016*N67</f>
-        <v>2889516.9783943924</v>
+        <f t="shared" ref="P67:P111" si="5">0.0413*N67</f>
+        <v>395679.87800957705</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q111" si="6">0.025*N67</f>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="5"/>
-        <v>164790.39776510166</v>
+        <v>22565.793858417441</v>
       </c>
       <c r="Q68">
         <f t="shared" si="6"/>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="5"/>
-        <v>1082478.3563796356</v>
+        <v>148230.62373500981</v>
       </c>
       <c r="Q69">
         <f t="shared" si="6"/>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="5"/>
-        <v>56458.44805590561</v>
+        <v>7731.2132118995423</v>
       </c>
       <c r="Q70">
         <f t="shared" si="6"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="5"/>
-        <v>383247.01182332815</v>
+        <v>52480.442932040634</v>
       </c>
       <c r="Q71">
         <f t="shared" si="6"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="5"/>
-        <v>18572.897942860982</v>
+        <v>2543.3046586212158</v>
       </c>
       <c r="Q72">
         <f t="shared" si="6"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="5"/>
-        <v>130318.69096691905</v>
+        <v>17845.364512379834</v>
       </c>
       <c r="Q73">
         <f t="shared" si="6"/>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="5"/>
-        <v>12882705.784865711</v>
+        <v>1764110.573325444</v>
       </c>
       <c r="Q74">
         <f t="shared" si="6"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="5"/>
-        <v>75067266.311680526</v>
+        <v>10279436.666685697</v>
       </c>
       <c r="Q75">
         <f t="shared" si="6"/>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="5"/>
-        <v>4902721.0462875552</v>
+        <v>671360.67377876688</v>
       </c>
       <c r="Q76">
         <f t="shared" si="6"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="5"/>
-        <v>29620536.815069843</v>
+        <v>4056127.8861484905</v>
       </c>
       <c r="Q77">
         <f t="shared" si="6"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="5"/>
-        <v>1866482.0852087049</v>
+        <v>255589.22453288967</v>
       </c>
       <c r="Q78">
         <f t="shared" si="6"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="5"/>
-        <v>11908424.272635825</v>
+        <v>1630696.0293761925</v>
       </c>
       <c r="Q79">
         <f t="shared" si="6"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="5"/>
-        <v>706403.45263940201</v>
+        <v>96732.303030528215</v>
       </c>
       <c r="Q80">
         <f t="shared" si="6"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="5"/>
-        <v>4721934.9301775927</v>
+        <v>646604.48480217042</v>
       </c>
       <c r="Q81">
         <f t="shared" si="6"/>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="5"/>
-        <v>264388.16171612137</v>
+        <v>36204.347078500708</v>
       </c>
       <c r="Q82">
         <f t="shared" si="6"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="5"/>
-        <v>1841159.3245339587</v>
+        <v>252121.61837948443</v>
       </c>
       <c r="Q83">
         <f t="shared" si="6"/>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="5"/>
-        <v>96573.692551180546</v>
+        <v>13224.447952134475</v>
       </c>
       <c r="Q84">
         <f t="shared" si="6"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="5"/>
-        <v>697779.79168330901</v>
+        <v>95551.410465917332</v>
       </c>
       <c r="Q85">
         <f t="shared" si="6"/>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="5"/>
-        <v>34122.583708968887</v>
+        <v>4672.6217081578761</v>
       </c>
       <c r="Q86">
         <f t="shared" si="6"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="5"/>
-        <v>254427.547398544</v>
+        <v>34840.3770144558</v>
       </c>
       <c r="Q87">
         <f t="shared" si="6"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="5"/>
-        <v>11575.416436698268</v>
+        <v>1585.0951552905788</v>
       </c>
       <c r="Q88">
         <f t="shared" si="6"/>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="5"/>
-        <v>89103.207851767875</v>
+        <v>12201.467122937711</v>
       </c>
       <c r="Q89">
         <f t="shared" si="6"/>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="5"/>
-        <v>3763.2379570706939</v>
+        <v>515.32403059356659</v>
       </c>
       <c r="Q90">
         <f t="shared" si="6"/>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="5"/>
-        <v>29834.152726254873</v>
+        <v>4085.3796670899419</v>
       </c>
       <c r="Q91">
         <f t="shared" si="6"/>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="5"/>
-        <v>7318465.0519458288</v>
+        <v>1002163.8151371444</v>
       </c>
       <c r="Q92">
         <f t="shared" si="6"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="5"/>
-        <v>47596206.294961378</v>
+        <v>6517650.2651919937</v>
       </c>
       <c r="Q93">
         <f t="shared" si="6"/>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="5"/>
-        <v>2618134.1021282147</v>
+        <v>358517.70032458648</v>
       </c>
       <c r="Q94">
         <f t="shared" si="6"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="5"/>
-        <v>18523430.160599608</v>
+        <v>2536530.7215940449</v>
       </c>
       <c r="Q95">
         <f t="shared" si="6"/>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="5"/>
-        <v>944046.38116410689</v>
+        <v>129274.25577611943</v>
       </c>
       <c r="Q96">
         <f t="shared" si="6"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="5"/>
-        <v>7286852.6938438602</v>
+        <v>997834.93453498499</v>
       </c>
       <c r="Q97">
         <f t="shared" si="6"/>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="5"/>
-        <v>341617.51914653537</v>
+        <v>46779.852588699978</v>
       </c>
       <c r="Q98">
         <f t="shared" si="6"/>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="5"/>
-        <v>2851854.0851154812</v>
+        <v>390522.45926813455</v>
       </c>
       <c r="Q99">
         <f t="shared" si="6"/>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="5"/>
-        <v>123481.95192237175</v>
+        <v>16909.166493348654</v>
       </c>
       <c r="Q100">
         <f t="shared" si="6"/>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="5"/>
-        <v>1107031.5926815704</v>
+        <v>151592.85403762886</v>
       </c>
       <c r="Q101">
         <f t="shared" si="6"/>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="5"/>
-        <v>44073.099323422139</v>
+        <v>6035.2088927630457</v>
       </c>
       <c r="Q102">
         <f t="shared" si="6"/>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="5"/>
-        <v>421980.17346014205</v>
+        <v>57784.420304721054</v>
       </c>
       <c r="Q103">
         <f t="shared" si="6"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="5"/>
-        <v>15464.087546429688</v>
+        <v>2117.5955426642781</v>
       </c>
       <c r="Q104">
         <f t="shared" si="6"/>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="5"/>
-        <v>156962.07358466904</v>
+        <v>21493.811800553158</v>
       </c>
       <c r="Q105">
         <f t="shared" si="6"/>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="5"/>
-        <v>5292.2577702985627</v>
+        <v>724.70240687443857</v>
       </c>
       <c r="Q106">
         <f t="shared" si="6"/>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="5"/>
-        <v>56815.846277753779</v>
+        <v>7780.1540161512976</v>
       </c>
       <c r="Q107">
         <f t="shared" si="6"/>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="5"/>
-        <v>1740.0282499073594</v>
+        <v>238.27309920813644</v>
       </c>
       <c r="Q108">
         <f t="shared" si="6"/>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="5"/>
-        <v>19689.662517984856</v>
+        <v>2696.2303116471312</v>
       </c>
       <c r="Q109">
         <f t="shared" si="6"/>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="5"/>
-        <v>549.03461218468124</v>
+        <v>75.182790063751128</v>
       </c>
       <c r="Q110">
         <f t="shared" si="6"/>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="5"/>
-        <v>6528.5879076226611</v>
+        <v>894.00093032100779</v>
       </c>
       <c r="Q111">
         <f t="shared" si="6"/>
